--- a/nmadb/501217.xlsx
+++ b/nmadb/501217.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofia\Desktop\nmadata\nmadb\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D618E8-7593-40D0-B996-8851A9D549C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="21255" windowHeight="9990"/>
+    <workbookView xWindow="240" yWindow="36" windowWidth="21252" windowHeight="9996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
   <si>
     <t>year</t>
   </si>
@@ -209,8 +215,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,10 +273,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -291,7 +305,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -320,7 +340,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -362,7 +382,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,9 +414,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,6 +466,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -603,16 +659,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="G83" sqref="B80:G83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -638,7 +694,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1993</v>
       </c>
@@ -667,7 +723,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -690,7 +746,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1998</v>
       </c>
@@ -716,7 +772,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -739,7 +795,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2002</v>
       </c>
@@ -765,7 +821,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -788,7 +844,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1998</v>
       </c>
@@ -808,7 +864,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -825,7 +881,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -842,7 +898,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1989</v>
       </c>
@@ -862,7 +918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -879,7 +935,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1993</v>
       </c>
@@ -899,7 +955,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -916,7 +972,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1998</v>
       </c>
@@ -936,7 +992,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -953,7 +1009,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1995</v>
       </c>
@@ -973,7 +1029,7 @@
         <v>4404</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -990,7 +1046,7 @@
         <v>4439</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1998</v>
       </c>
@@ -1010,7 +1066,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>14</v>
       </c>
@@ -1027,7 +1083,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1995</v>
       </c>
@@ -1047,7 +1103,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>15</v>
       </c>
@@ -1064,7 +1120,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2002</v>
       </c>
@@ -1084,7 +1140,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>16</v>
       </c>
@@ -1101,7 +1157,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1999</v>
       </c>
@@ -1121,7 +1177,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>17</v>
       </c>
@@ -1138,7 +1194,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2001</v>
       </c>
@@ -1158,7 +1214,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>18</v>
       </c>
@@ -1175,7 +1231,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2001</v>
       </c>
@@ -1195,7 +1251,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>19</v>
       </c>
@@ -1212,7 +1268,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>19</v>
@@ -1230,7 +1286,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1991</v>
       </c>
@@ -1250,7 +1306,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>20</v>
       </c>
@@ -1267,7 +1323,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1991</v>
       </c>
@@ -1287,7 +1343,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>21</v>
       </c>
@@ -1304,7 +1360,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1992</v>
       </c>
@@ -1324,7 +1380,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>22</v>
       </c>
@@ -1341,7 +1397,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1995</v>
       </c>
@@ -1361,7 +1417,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>23</v>
       </c>
@@ -1378,7 +1434,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1996</v>
       </c>
@@ -1398,7 +1454,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>24</v>
       </c>
@@ -1415,7 +1471,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1996</v>
       </c>
@@ -1435,7 +1491,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>25</v>
       </c>
@@ -1452,7 +1508,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1997</v>
       </c>
@@ -1472,7 +1528,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>26</v>
       </c>
@@ -1489,7 +1545,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1997</v>
       </c>
@@ -1509,7 +1565,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>27</v>
       </c>
@@ -1526,7 +1582,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1998</v>
       </c>
@@ -1546,7 +1602,7 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>28</v>
       </c>
@@ -1563,7 +1619,7 @@
         <v>4336</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1998</v>
       </c>
@@ -1583,7 +1639,7 @@
         <v>4635</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>29</v>
       </c>
@@ -1600,7 +1656,7 @@
         <v>4688</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1999</v>
       </c>
@@ -1620,7 +1676,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>30</v>
       </c>
@@ -1637,7 +1693,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1999</v>
       </c>
@@ -1657,7 +1713,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>31</v>
       </c>
@@ -1674,7 +1730,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2000</v>
       </c>
@@ -1694,7 +1750,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>32</v>
       </c>
@@ -1711,7 +1767,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2001</v>
       </c>
@@ -1731,7 +1787,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>33</v>
       </c>
@@ -1748,7 +1804,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1999</v>
       </c>
@@ -1768,7 +1824,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>34</v>
       </c>
@@ -1785,7 +1841,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1999</v>
       </c>
@@ -1805,7 +1861,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>35</v>
       </c>
@@ -1822,7 +1878,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1999</v>
       </c>
@@ -1842,7 +1898,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>36</v>
       </c>
@@ -1859,7 +1915,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1999</v>
       </c>
@@ -1879,7 +1935,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>37</v>
       </c>
@@ -1896,7 +1952,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2000</v>
       </c>
@@ -1916,7 +1972,7 @@
         <v>4047</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>38</v>
       </c>
@@ -1933,7 +1989,7 @@
         <v>4029</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2000</v>
       </c>
@@ -1953,7 +2009,7 @@
         <v>3897</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>39</v>
       </c>
@@ -1970,7 +2026,7 @@
         <v>3981</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2000</v>
       </c>
@@ -1990,7 +2046,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>40</v>
       </c>
@@ -2007,7 +2063,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2001</v>
       </c>
@@ -2027,7 +2083,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>41</v>
       </c>
@@ -2044,7 +2100,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2001</v>
       </c>
@@ -2064,7 +2120,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>42</v>
       </c>
@@ -2081,7 +2137,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2001</v>
       </c>
@@ -2101,7 +2157,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>43</v>
       </c>
@@ -2118,10 +2174,8 @@
         <v>207</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
-      <c r="B80" s="1" t="s">
-        <v>44</v>
-      </c>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B80" s="1"/>
       <c r="C80" s="1">
         <v>39</v>
       </c>
@@ -2138,7 +2192,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="2:6">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="1" t="s">
         <v>44</v>
       </c>
@@ -2155,7 +2209,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="82" spans="2:6">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="1" t="s">
         <v>46</v>
       </c>
@@ -2172,7 +2226,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="83" spans="2:6">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
         <v>46</v>
       </c>
@@ -2196,24 +2250,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
